--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122CDB04-0318-42A2-9227-13D78E4C047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436A3438-014F-4BBB-86BC-3DDB9873594A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{C0237F06-23D6-4855-8517-3E55DD104DFF}"/>
+    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{7B93B93F-061A-4265-954B-24C0CD5B4670}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{075344E9-2D94-4A8B-9367-EC3D6F1AC4CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FEBB21-63C3-4E07-A77F-D15D7D659297}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f20RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/E/Angle/f20RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\E\Angle\f20RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436A3438-014F-4BBB-86BC-3DDB9873594A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D5FEF5-0F40-46DE-B71F-AE41EF9CAD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="240" windowWidth="15120" windowHeight="8604" xr2:uid="{7B93B93F-061A-4265-954B-24C0CD5B4670}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{723B8AD0-9C54-41CE-A497-506DE02501F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2FEBB21-63C3-4E07-A77F-D15D7D659297}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA1801E-ADC4-473C-9373-24F9C0989907}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>56.616326127389456</v>
+        <v>71.113721689031593</v>
       </c>
     </row>
   </sheetData>
